--- a/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -234,10 +234,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,7 +295,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,8 +322,8 @@
   </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,7 +401,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -445,7 +449,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -477,7 +481,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -509,7 +513,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -541,7 +545,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -573,7 +577,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -605,7 +609,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -637,7 +641,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -669,7 +673,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -701,7 +705,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -733,7 +737,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -765,7 +769,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -797,7 +801,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -829,7 +833,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -861,7 +865,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -893,7 +897,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -925,7 +929,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -957,7 +961,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -989,7 +993,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1021,7 +1025,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1053,7 +1057,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1085,7 +1089,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1117,7 +1121,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1149,7 +1153,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1181,7 +1185,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1213,7 +1217,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1245,7 +1249,7 @@
       <c r="G28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
@@ -1277,7 +1281,7 @@
       <c r="G29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
@@ -1309,7 +1313,7 @@
       <c r="G30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
@@ -1341,7 +1345,7 @@
       <c r="G31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
@@ -1373,7 +1377,7 @@
       <c r="G32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
@@ -1405,7 +1409,7 @@
       <c r="G33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
@@ -1437,7 +1441,7 @@
       <c r="G34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="0" t="s">
@@ -1469,7 +1473,7 @@
       <c r="G35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -1501,7 +1505,7 @@
       <c r="G36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
@@ -1533,7 +1537,7 @@
       <c r="G37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="0" t="s">
@@ -1565,7 +1569,7 @@
       <c r="G38" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="0" t="s">
@@ -1597,7 +1601,7 @@
       <c r="G39" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="55">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -194,8 +191,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -282,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,6 +298,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,8 +324,8 @@
   </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,11 +406,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -435,7 +437,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -452,11 +454,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -484,11 +486,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -516,11 +518,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -548,11 +550,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -580,11 +582,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -612,11 +614,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -644,11 +646,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -676,11 +678,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -708,11 +710,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -740,11 +742,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -772,11 +774,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -804,11 +806,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -836,11 +838,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -868,11 +870,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -900,11 +902,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -932,11 +934,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -964,11 +966,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -996,11 +998,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -1028,11 +1030,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1060,11 +1062,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1092,11 +1094,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1124,11 +1126,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1156,11 +1158,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1188,11 +1190,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1220,11 +1222,11 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
@@ -1252,11 +1254,11 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>13</v>
@@ -1284,11 +1286,11 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
+      <c r="I29" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>13</v>
@@ -1316,11 +1318,11 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
+      <c r="I30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>13</v>
@@ -1348,11 +1350,11 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>13</v>
@@ -1380,11 +1382,11 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>13</v>
@@ -1412,11 +1414,11 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
+      <c r="I33" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>13</v>
@@ -1444,11 +1446,11 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>16</v>
+      <c r="I34" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>13</v>
@@ -1476,11 +1478,11 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>16</v>
+      <c r="I35" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>13</v>
@@ -1508,11 +1510,11 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>16</v>
+      <c r="I36" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>13</v>
@@ -1540,22 +1542,22 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
+      <c r="I37" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>13</v>
@@ -1572,22 +1574,22 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
+      <c r="I38" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>13</v>
@@ -1604,11 +1606,11 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
+      <c r="I39" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">11.04.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">JR3 10</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10.19</t>
+    <t xml:space="preserve">06.10.19</t>
   </si>
   <si>
     <t xml:space="preserve">2b 21</t>
@@ -324,13 +324,15 @@
   </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,7 +1250,7 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -1280,7 +1282,7 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -1312,7 +1314,7 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -1344,7 +1346,7 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -1376,7 +1378,7 @@
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -1408,7 +1410,7 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -1440,7 +1442,7 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -1472,7 +1474,7 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -1504,7 +1506,7 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -1536,7 +1538,7 @@
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -1568,7 +1570,7 @@
       <c r="F38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -1600,7 +1602,7 @@
       <c r="F39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="4" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">11.04.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -325,7 +325,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,7 +408,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -456,7 +457,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -488,7 +490,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -520,7 +523,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -552,7 +556,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -584,7 +589,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -616,7 +622,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -648,7 +655,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -680,7 +688,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -712,7 +721,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -744,7 +754,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -776,7 +787,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -808,7 +820,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -840,7 +853,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -872,7 +886,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -904,7 +919,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -936,7 +952,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -968,7 +985,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1000,7 +1018,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1032,7 +1051,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1064,7 +1084,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1096,7 +1117,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1128,7 +1150,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1160,7 +1183,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1192,7 +1216,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1224,7 +1249,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1256,7 +1282,8 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -1288,7 +1315,8 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -1320,7 +1348,8 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -1352,7 +1381,8 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -1384,7 +1414,8 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -1416,7 +1447,8 @@
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="5" t="b">
+      <c r="I33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -1448,7 +1480,8 @@
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="5" t="b">
+      <c r="I34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -1480,7 +1513,8 @@
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="5" t="b">
+      <c r="I35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -1512,7 +1546,8 @@
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="5" t="b">
+      <c r="I36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -1544,7 +1579,8 @@
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="5" t="b">
+      <c r="I37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
@@ -1576,7 +1612,8 @@
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="5" t="b">
+      <c r="I38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="0" t="s">
@@ -1608,7 +1645,8 @@
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="5" t="b">
+      <c r="I39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_11.04.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D131DD-BA21-D049-B0DC-2236B47C1C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB066B3-E235-DE4C-951B-3DFE881F34FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="18">
   <si>
     <t>rnaDate</t>
   </si>
@@ -83,14 +83,14 @@
   <si>
     <t>06.10.19</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,9 +545,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -594,9 +593,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -627,9 +625,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -660,9 +657,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -693,9 +689,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -726,9 +721,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -759,9 +753,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -792,9 +785,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -825,9 +817,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -858,9 +849,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -891,9 +881,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -924,9 +913,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -957,9 +945,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -990,9 +977,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1023,9 +1009,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1056,9 +1041,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1089,9 +1073,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1122,9 +1105,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1155,9 +1137,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1188,9 +1169,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1221,9 +1201,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1254,9 +1233,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1287,9 +1265,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1320,9 +1297,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1353,9 +1329,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1386,9 +1361,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1419,9 +1393,8 @@
       <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I28" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -1452,9 +1425,8 @@
       <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I29" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1485,9 +1457,8 @@
       <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I30" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1518,9 +1489,8 @@
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I31" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1551,9 +1521,8 @@
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I32" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -1584,9 +1553,8 @@
       <c r="H33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I33" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -1617,9 +1585,8 @@
       <c r="H34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I34" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -1650,9 +1617,8 @@
       <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I35" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -1683,9 +1649,8 @@
       <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1716,9 +1681,8 @@
       <c r="H37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I37" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -1749,9 +1713,8 @@
       <c r="H38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I38" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -1782,9 +1745,8 @@
       <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I39" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
